--- a/Reports/2nd.xlsx
+++ b/Reports/2nd.xlsx
@@ -100,10 +100,10 @@
     <t>08/31/21 21:42:08</t>
   </si>
   <si>
-    <t>4ca59991dec7947c87a72a6ad71304a7caea9059</t>
-  </si>
-  <si>
-    <t>Create 2nd.MD</t>
+    <t>fc732a4d17eead02339ff5db6cbdfeae5bca69c1</t>
+  </si>
+  <si>
+    <t>Create 3rd.MD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44439.90449353009</v>
+        <v>44439.90654914352</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
